--- a/medicine/Psychotrope/Einsiedler_Brauhaus/Einsiedler_Brauhaus.xlsx
+++ b/medicine/Psychotrope/Einsiedler_Brauhaus/Einsiedler_Brauhaus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Einsiedler Brauhaus est une brasserie à Chemnitz, dans le Land de Saxe.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Einsiedler Brauhaus est fondé le 29 août 1885 par Emil Schwalbe. En 1903, elle devient une société par actions. En 1920, le Deutsche Brau- &amp; Aktiengesellschaft Berlin achète la brasserie et la baptise Einsiedler Brauhaus AG. En 1925, elle devient une filiale de Radeberger. En 1937, Einsiedler Brauhaus retrouve son indépendance grâce à la famille Winterling. Après la Seconde Guerre mondiale, la société est mise sous séquestre, en 1961 elle est nationalisée à moitié puis entièrement en 1972. Elle se retrouve alors dans le VEB Vereinigte Brauereien Karl-Marx-Stadt (plus tard VEB Braustolz). En 1990, Einsiedler Brauhaus devient une GmbH.
 </t>
@@ -543,7 +557,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Einsiedler Landbier
 Einsiedler hell
@@ -588,7 +604,9 @@
           <t>Partenariat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'entreprise soutient de nombreuses associations locales :
 1. FC Lokomotive Leipzig
